--- a/src/main/resources/light_weight_data/light_weight_data.xlsx
+++ b/src/main/resources/light_weight_data/light_weight_data.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,7 +135,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>648.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -163,36 +163,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>WFhYTExMTIy</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>WFhMTExMjI=</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>WExMTEyMg==</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>e4862173-578e-43a5-80fd-e37476a3e69f</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/light_weight_data/light_weight_data.xlsx
+++ b/src/main/resources/light_weight_data/light_weight_data.xlsx
@@ -139,22 +139,22 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>TExMTIy</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>TExMTIy</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>TExMTIy</t>
+          <t>~TExMTIy</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
